--- a/05.xlsx
+++ b/05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aoc\2021-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5309D7-4F80-408B-9B5C-1EA3908FFB2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E3EF56-B2D4-4048-8705-2E4E7AC0D05E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{25ACF767-37C1-446B-B10C-A6ACEB30615F}"/>
+    <workbookView minimized="1" xWindow="1815" yWindow="1005" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{25ACF767-37C1-446B-B10C-A6ACEB30615F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="521">
   <si>
     <t>0,9 -&gt; 5,9</t>
   </si>
@@ -4740,10 +4740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D39FC75-A558-46D7-9ACF-069438F51E26}">
-  <dimension ref="A1:ARZ501"/>
+  <dimension ref="A1:ARU501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AT30" sqref="AT30"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4753,15 +4753,12 @@
     <col min="12" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="21" width="3.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="30" width="3.7109375" style="2" customWidth="1"/>
-    <col min="31" max="31" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="1170" width="3.42578125" style="3" customWidth="1"/>
+    <col min="16" max="25" width="3.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="1165" width="3.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4823,26 +4820,14 @@
       <c r="X1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="4" cm="1">
-        <f t="array" ref="AE1">_xlfn.LET(_xlpm.range, AE2:ARZ635,
+      <c r="Z1" s="4" cm="1">
+        <f t="array" ref="Z1">_xlfn.LET(_xlpm.range, Z2:ARU635,
            _xlpm.values, IF(ISTEXT(_xlpm.range), 0, _xlpm.range),
            SUM(IF(_xlpm.values&gt;1, 1, 0)))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:36">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A11">Example[Data]</f>
         <v>0,9 -&gt; 5,9</v>
@@ -4895,286 +4880,270 @@
         <v>1</v>
       </c>
       <c r="P2" s="2" cm="1">
-        <f t="array" ref="P2:P11">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(G2),INDEX($N$2:$N$501, _xlfn.SEQUENCE(LEN(_xlfn.ANCHORARRAY($L$2)))))</f>
+        <f t="array" ref="P2:P3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($G$2)),_xlfn.ANCHORARRAY( $G$2)=_xlfn.ANCHORARRAY($I$2)), INDEX(G:G, _xlpm.hor_index))</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" cm="1">
+        <f t="array" ref="Q2:Q3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($G$2)),_xlfn.ANCHORARRAY( $G$2)=_xlfn.ANCHORARRAY($I$2)), INDEX(H:H, _xlpm.hor_index))</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" cm="1">
+        <f t="array" ref="R2:R3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($G$2)),_xlfn.ANCHORARRAY( $G$2)=_xlfn.ANCHORARRAY($I$2)), INDEX(I:I, _xlpm.hor_index))</f>
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" cm="1">
+        <f t="array" ref="S2:S3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($G$2)),_xlfn.ANCHORARRAY( $G$2)=_xlfn.ANCHORARRAY($I$2)), INDEX(J:J, _xlpm.hor_index))</f>
+        <v>2</v>
+      </c>
+      <c r="U2" s="2" cm="1">
+        <f t="array" ref="U2:U5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($H$2)),_xlfn.ANCHORARRAY( $H$2)=_xlfn.ANCHORARRAY($J$2)), INDEX(G:G, _xlpm.ver_index))</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="2" cm="1">
-        <f t="array" ref="Q2:Q11">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(H2),INDEX($N$2:$N$501, _xlfn.SEQUENCE(LEN(_xlfn.ANCHORARRAY($L$2)))))</f>
+      <c r="V2" s="2" cm="1">
+        <f t="array" ref="V2:V5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($H$2)),_xlfn.ANCHORARRAY( $H$2)=_xlfn.ANCHORARRAY($J$2)), INDEX(H:H, _xlpm.ver_index))</f>
         <v>9</v>
       </c>
-      <c r="R2" s="2" cm="1">
-        <f t="array" ref="R2:R11">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(I2),INDEX($N$2:$N$501, _xlfn.SEQUENCE(LEN(_xlfn.ANCHORARRAY($L$2)))))</f>
+      <c r="W2" s="2" cm="1">
+        <f t="array" ref="W2:W5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($H$2)),_xlfn.ANCHORARRAY( $H$2)=_xlfn.ANCHORARRAY($J$2)), INDEX(I:I, _xlpm.ver_index))</f>
         <v>5</v>
       </c>
-      <c r="S2" s="2" cm="1">
-        <f t="array" ref="S2:S11">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(J2),INDEX($N$2:$N$501, _xlfn.SEQUENCE(LEN(_xlfn.ANCHORARRAY($L$2)))))</f>
+      <c r="X2" s="2" cm="1">
+        <f t="array" ref="X2:X5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($H$2)),_xlfn.ANCHORARRAY( $H$2)=_xlfn.ANCHORARRAY($J$2)), INDEX(J:J, _xlpm.ver_index))</f>
         <v>9</v>
       </c>
-      <c r="U2" s="2" cm="1">
-        <f t="array" ref="U2:U3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($P$2)),_xlfn.ANCHORARRAY( $P$2)=_xlfn.ANCHORARRAY($R$2)), INDEX(P:P, _xlpm.hor_index))</f>
-        <v>2</v>
-      </c>
-      <c r="V2" s="2" cm="1">
-        <f t="array" ref="V2:V3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($P$2)),_xlfn.ANCHORARRAY( $P$2)=_xlfn.ANCHORARRAY($R$2)), INDEX(Q:Q, _xlpm.hor_index))</f>
-        <v>1</v>
-      </c>
-      <c r="W2" s="2" cm="1">
-        <f t="array" ref="W2:W3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($P$2)),_xlfn.ANCHORARRAY( $P$2)=_xlfn.ANCHORARRAY($R$2)), INDEX(R:R, _xlpm.hor_index))</f>
-        <v>2</v>
-      </c>
-      <c r="X2" s="2" cm="1">
-        <f t="array" ref="X2:X3">_xlfn.LET(_xlpm.hor_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($P$2)),_xlfn.ANCHORARRAY( $P$2)=_xlfn.ANCHORARRAY($R$2)), INDEX(S:S, _xlpm.hor_index))</f>
-        <v>2</v>
-      </c>
-      <c r="Z2" s="2" cm="1">
-        <f t="array" ref="Z2:Z5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($Q$2)),_xlfn.ANCHORARRAY( $Q$2)=_xlfn.ANCHORARRAY($S$2)), INDEX(P:P, _xlpm.ver_index))</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" cm="1">
-        <f t="array" ref="AA2:AA5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($Q$2)),_xlfn.ANCHORARRAY( $Q$2)=_xlfn.ANCHORARRAY($S$2)), INDEX(Q:Q, _xlpm.ver_index))</f>
-        <v>9</v>
-      </c>
-      <c r="AB2" s="2" cm="1">
-        <f t="array" ref="AB2:AB5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($Q$2)),_xlfn.ANCHORARRAY( $Q$2)=_xlfn.ANCHORARRAY($S$2)), INDEX(R:R, _xlpm.ver_index))</f>
-        <v>5</v>
-      </c>
-      <c r="AC2" s="2" cm="1">
-        <f t="array" ref="AC2:AC5">_xlfn.LET(_xlpm.ver_index, _xlfn._xlws.FILTER(ROW(_xlfn.ANCHORARRAY($Q$2)),_xlfn.ANCHORARRAY( $Q$2)=_xlfn.ANCHORARRAY($S$2)), INDEX(S:S, _xlpm.ver_index))</f>
-        <v>9</v>
-      </c>
-      <c r="AE2" s="3" t="str" cm="1">
-        <f t="array" ref="AE2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="Z2" s="3" t="str" cm="1">
+        <f t="array" ref="Z2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF2" s="3" t="str" cm="1">
-        <f t="array" ref="AF2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AA2" s="3" t="str" cm="1">
+        <f t="array" ref="AA2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG2" s="3" t="str" cm="1">
-        <f t="array" ref="AG2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AB2" s="3" t="str" cm="1">
+        <f t="array" ref="AB2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AH2" s="3" t="str" cm="1">
-        <f t="array" ref="AH2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AC2" s="3" t="str" cm="1">
+        <f t="array" ref="AC2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI2" s="3" t="str" cm="1">
-        <f t="array" ref="AI2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AD2" s="3" t="str" cm="1">
+        <f t="array" ref="AD2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ2" s="3" t="str" cm="1">
-        <f t="array" ref="AJ2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AE2" s="3" t="str" cm="1">
+        <f t="array" ref="AE2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK2" s="3" t="str" cm="1">
-        <f t="array" ref="AK2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AF2" s="3" t="str" cm="1">
+        <f t="array" ref="AF2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL2" s="3" cm="1">
-        <f t="array" ref="AL2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AG2" s="3" cm="1">
+        <f t="array" ref="AG2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AM2" s="3" t="str" cm="1">
-        <f t="array" ref="AM2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AH2" s="3" t="str" cm="1">
+        <f t="array" ref="AH2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN2" s="3" t="str" cm="1">
-        <f t="array" ref="AN2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AI2" s="3" t="str" cm="1">
+        <f t="array" ref="AI2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO2" s="3" t="str" cm="1">
-        <f t="array" ref="AO2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
+      <c r="AJ2" s="3" t="str" cm="1">
+        <f t="array" ref="AJ2">_xlfn.LET(_xlpm.y, ROW(1:1)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:36">
       <c r="A3" t="str">
         <v>8,0 -&gt; 0,8</v>
       </c>
@@ -5213,274 +5182,262 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S3" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U3" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W3" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2">
         <v>4</v>
       </c>
-      <c r="Z3" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="3" t="str" cm="1">
-        <f t="array" ref="AE3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="Z3" s="3" t="str" cm="1">
+        <f t="array" ref="Z3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF3" s="3" t="str" cm="1">
-        <f t="array" ref="AF3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AA3" s="3" t="str" cm="1">
+        <f t="array" ref="AA3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG3" s="3" cm="1">
-        <f t="array" ref="AG3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AB3" s="3" cm="1">
+        <f t="array" ref="AB3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AH3" s="3" t="str" cm="1">
-        <f t="array" ref="AH3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AC3" s="3" t="str" cm="1">
+        <f t="array" ref="AC3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI3" s="3" t="str" cm="1">
-        <f t="array" ref="AI3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AD3" s="3" t="str" cm="1">
+        <f t="array" ref="AD3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ3" s="3" t="str" cm="1">
-        <f t="array" ref="AJ3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AE3" s="3" t="str" cm="1">
+        <f t="array" ref="AE3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK3" s="3" t="str" cm="1">
-        <f t="array" ref="AK3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AF3" s="3" t="str" cm="1">
+        <f t="array" ref="AF3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL3" s="3" cm="1">
-        <f t="array" ref="AL3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AG3" s="3" cm="1">
+        <f t="array" ref="AG3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AM3" s="3" t="str" cm="1">
-        <f t="array" ref="AM3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AH3" s="3" t="str" cm="1">
+        <f t="array" ref="AH3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN3" s="3" t="str" cm="1">
-        <f t="array" ref="AN3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AI3" s="3" t="str" cm="1">
+        <f t="array" ref="AI3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO3" s="3" t="str" cm="1">
-        <f t="array" ref="AO3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
+      <c r="AJ3" s="3" t="str" cm="1">
+        <f t="array" ref="AJ3">_xlfn.LET(_xlpm.y, ROW(2:2)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:36">
       <c r="A4" t="str">
         <v>9,4 -&gt; 3,4</v>
       </c>
@@ -5518,263 +5475,251 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
         <v>9</v>
       </c>
-      <c r="S4" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
+      <c r="W4" s="2">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2">
         <v>9</v>
       </c>
-      <c r="AB4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="3" t="str" cm="1">
-        <f t="array" ref="AE4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="Z4" s="3" t="str" cm="1">
+        <f t="array" ref="Z4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF4" s="3" t="str" cm="1">
-        <f t="array" ref="AF4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AA4" s="3" t="str" cm="1">
+        <f t="array" ref="AA4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG4" s="3" cm="1">
-        <f t="array" ref="AG4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AB4" s="3" cm="1">
+        <f t="array" ref="AB4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AH4" s="3" t="str" cm="1">
-        <f t="array" ref="AH4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AC4" s="3" t="str" cm="1">
+        <f t="array" ref="AC4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI4" s="3" t="str" cm="1">
-        <f t="array" ref="AI4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AD4" s="3" t="str" cm="1">
+        <f t="array" ref="AD4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ4" s="3" t="str" cm="1">
-        <f t="array" ref="AJ4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AE4" s="3" t="str" cm="1">
+        <f t="array" ref="AE4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK4" s="3" t="str" cm="1">
-        <f t="array" ref="AK4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AF4" s="3" t="str" cm="1">
+        <f t="array" ref="AF4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL4" s="3" cm="1">
-        <f t="array" ref="AL4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AG4" s="3" cm="1">
+        <f t="array" ref="AG4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AM4" s="3" t="str" cm="1">
-        <f t="array" ref="AM4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AH4" s="3" t="str" cm="1">
+        <f t="array" ref="AH4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN4" s="3" t="str" cm="1">
-        <f t="array" ref="AN4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AI4" s="3" t="str" cm="1">
+        <f t="array" ref="AI4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO4" s="3" t="str" cm="1">
-        <f t="array" ref="AO4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
+      <c r="AJ4" s="3" t="str" cm="1">
+        <f t="array" ref="AJ4">_xlfn.LET(_xlpm.y, ROW(3:3)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:36">
       <c r="A5" t="str">
         <v>2,2 -&gt; 2,1</v>
       </c>
@@ -5812,263 +5757,251 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P5" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="U5" s="2">
         <v>1</v>
       </c>
-      <c r="R5" s="2">
-        <v>2</v>
-      </c>
-      <c r="S5" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
+      <c r="V5" s="2">
         <v>4</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="W5" s="2">
         <v>3</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="X5" s="2">
         <v>4</v>
       </c>
-      <c r="AE5" s="3" t="str" cm="1">
-        <f t="array" ref="AE5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="Z5" s="3" t="str" cm="1">
+        <f t="array" ref="Z5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF5" s="3" t="str" cm="1">
-        <f t="array" ref="AF5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AA5" s="3" t="str" cm="1">
+        <f t="array" ref="AA5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG5" s="3" t="str" cm="1">
-        <f t="array" ref="AG5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AB5" s="3" t="str" cm="1">
+        <f t="array" ref="AB5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AH5" s="3" t="str" cm="1">
-        <f t="array" ref="AH5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AC5" s="3" t="str" cm="1">
+        <f t="array" ref="AC5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI5" s="3" t="str" cm="1">
-        <f t="array" ref="AI5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AD5" s="3" t="str" cm="1">
+        <f t="array" ref="AD5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ5" s="3" t="str" cm="1">
-        <f t="array" ref="AJ5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AE5" s="3" t="str" cm="1">
+        <f t="array" ref="AE5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK5" s="3" t="str" cm="1">
-        <f t="array" ref="AK5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AF5" s="3" t="str" cm="1">
+        <f t="array" ref="AF5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL5" s="3" cm="1">
-        <f t="array" ref="AL5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AG5" s="3" cm="1">
+        <f t="array" ref="AG5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AM5" s="3" t="str" cm="1">
-        <f t="array" ref="AM5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AH5" s="3" t="str" cm="1">
+        <f t="array" ref="AH5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN5" s="3" t="str" cm="1">
-        <f t="array" ref="AN5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AI5" s="3" t="str" cm="1">
+        <f t="array" ref="AI5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO5" s="3" t="str" cm="1">
-        <f t="array" ref="AO5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
+      <c r="AJ5" s="3" t="str" cm="1">
+        <f t="array" ref="AJ5">_xlfn.LET(_xlpm.y, ROW(4:4)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:36">
       <c r="A6" t="str">
         <v>7,0 -&gt; 7,4</v>
       </c>
@@ -6106,251 +6039,239 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P6" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>7</v>
-      </c>
-      <c r="S6" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="3" t="str" cm="1">
-        <f t="array" ref="AE6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="Z6" s="3" t="str" cm="1">
+        <f t="array" ref="Z6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF6" s="3" cm="1">
-        <f t="array" ref="AF6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AA6" s="3" cm="1">
+        <f t="array" ref="AA6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AG6" s="3" cm="1">
-        <f t="array" ref="AG6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AB6" s="3" cm="1">
+        <f t="array" ref="AB6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AH6" s="3" cm="1">
-        <f t="array" ref="AH6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AC6" s="3" cm="1">
+        <f t="array" ref="AC6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>2</v>
       </c>
-      <c r="AI6" s="3" cm="1">
-        <f t="array" ref="AI6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AD6" s="3" cm="1">
+        <f t="array" ref="AD6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AJ6" s="3" cm="1">
-        <f t="array" ref="AJ6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AE6" s="3" cm="1">
+        <f t="array" ref="AE6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AK6" s="3" cm="1">
-        <f t="array" ref="AK6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AF6" s="3" cm="1">
+        <f t="array" ref="AF6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AL6" s="3" cm="1">
-        <f t="array" ref="AL6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AG6" s="3" cm="1">
+        <f t="array" ref="AG6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>2</v>
       </c>
-      <c r="AM6" s="3" cm="1">
-        <f t="array" ref="AM6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AH6" s="3" cm="1">
+        <f t="array" ref="AH6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AN6" s="3" cm="1">
-        <f t="array" ref="AN6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AI6" s="3" cm="1">
+        <f t="array" ref="AI6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AO6" s="3" t="str" cm="1">
-        <f t="array" ref="AO6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
+      <c r="AJ6" s="3" t="str" cm="1">
+        <f t="array" ref="AJ6">_xlfn.LET(_xlpm.y, ROW(5:5)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:36">
       <c r="A7" t="str">
         <v>6,4 -&gt; 2,0</v>
       </c>
@@ -6388,251 +6309,239 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2">
-        <v>6</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3" t="str" cm="1">
-        <f t="array" ref="AE7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="Z7" s="3" t="str" cm="1">
+        <f t="array" ref="Z7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF7" s="3" t="str" cm="1">
-        <f t="array" ref="AF7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AA7" s="3" t="str" cm="1">
+        <f t="array" ref="AA7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG7" s="3" t="str" cm="1">
-        <f t="array" ref="AG7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AB7" s="3" t="str" cm="1">
+        <f t="array" ref="AB7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AH7" s="3" t="str" cm="1">
-        <f t="array" ref="AH7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AC7" s="3" t="str" cm="1">
+        <f t="array" ref="AC7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI7" s="3" t="str" cm="1">
-        <f t="array" ref="AI7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AD7" s="3" t="str" cm="1">
+        <f t="array" ref="AD7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ7" s="3" t="str" cm="1">
-        <f t="array" ref="AJ7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AE7" s="3" t="str" cm="1">
+        <f t="array" ref="AE7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK7" s="3" t="str" cm="1">
-        <f t="array" ref="AK7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AF7" s="3" t="str" cm="1">
+        <f t="array" ref="AF7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL7" s="3" t="str" cm="1">
-        <f t="array" ref="AL7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AG7" s="3" t="str" cm="1">
+        <f t="array" ref="AG7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AM7" s="3" t="str" cm="1">
-        <f t="array" ref="AM7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AH7" s="3" t="str" cm="1">
+        <f t="array" ref="AH7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN7" s="3" t="str" cm="1">
-        <f t="array" ref="AN7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AI7" s="3" t="str" cm="1">
+        <f t="array" ref="AI7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO7" s="3" t="str" cm="1">
-        <f t="array" ref="AO7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
+      <c r="AJ7" s="3" t="str" cm="1">
+        <f t="array" ref="AJ7">_xlfn.LET(_xlpm.y, ROW(6:6)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:36">
       <c r="A8" t="str">
         <v>0,9 -&gt; 2,9</v>
       </c>
@@ -6670,251 +6579,239 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>9</v>
-      </c>
-      <c r="R8" s="2">
-        <v>2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="3" t="str" cm="1">
-        <f t="array" ref="AE8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="Z8" s="3" t="str" cm="1">
+        <f t="array" ref="Z8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF8" s="3" t="str" cm="1">
-        <f t="array" ref="AF8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AA8" s="3" t="str" cm="1">
+        <f t="array" ref="AA8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG8" s="3" t="str" cm="1">
-        <f t="array" ref="AG8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AB8" s="3" t="str" cm="1">
+        <f t="array" ref="AB8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AH8" s="3" t="str" cm="1">
-        <f t="array" ref="AH8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AC8" s="3" t="str" cm="1">
+        <f t="array" ref="AC8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI8" s="3" t="str" cm="1">
-        <f t="array" ref="AI8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AD8" s="3" t="str" cm="1">
+        <f t="array" ref="AD8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ8" s="3" t="str" cm="1">
-        <f t="array" ref="AJ8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AE8" s="3" t="str" cm="1">
+        <f t="array" ref="AE8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK8" s="3" t="str" cm="1">
-        <f t="array" ref="AK8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AF8" s="3" t="str" cm="1">
+        <f t="array" ref="AF8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL8" s="3" t="str" cm="1">
-        <f t="array" ref="AL8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AG8" s="3" t="str" cm="1">
+        <f t="array" ref="AG8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AM8" s="3" t="str" cm="1">
-        <f t="array" ref="AM8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AH8" s="3" t="str" cm="1">
+        <f t="array" ref="AH8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN8" s="3" t="str" cm="1">
-        <f t="array" ref="AN8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AI8" s="3" t="str" cm="1">
+        <f t="array" ref="AI8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO8" s="3" t="str" cm="1">
-        <f t="array" ref="AO8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
+      <c r="AJ8" s="3" t="str" cm="1">
+        <f t="array" ref="AJ8">_xlfn.LET(_xlpm.y, ROW(7:7)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:36">
       <c r="A9" t="str">
         <v>3,4 -&gt; 1,4</v>
       </c>
@@ -6952,251 +6849,239 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2">
-        <v>3</v>
-      </c>
-      <c r="S9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="3" t="str" cm="1">
-        <f t="array" ref="AE9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="Z9" s="3" t="str" cm="1">
+        <f t="array" ref="Z9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF9" s="3" t="str" cm="1">
-        <f t="array" ref="AF9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AA9" s="3" t="str" cm="1">
+        <f t="array" ref="AA9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG9" s="3" t="str" cm="1">
-        <f t="array" ref="AG9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AB9" s="3" t="str" cm="1">
+        <f t="array" ref="AB9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AH9" s="3" t="str" cm="1">
-        <f t="array" ref="AH9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AC9" s="3" t="str" cm="1">
+        <f t="array" ref="AC9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI9" s="3" t="str" cm="1">
-        <f t="array" ref="AI9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AD9" s="3" t="str" cm="1">
+        <f t="array" ref="AD9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ9" s="3" t="str" cm="1">
-        <f t="array" ref="AJ9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AE9" s="3" t="str" cm="1">
+        <f t="array" ref="AE9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK9" s="3" t="str" cm="1">
-        <f t="array" ref="AK9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AF9" s="3" t="str" cm="1">
+        <f t="array" ref="AF9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL9" s="3" t="str" cm="1">
-        <f t="array" ref="AL9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AG9" s="3" t="str" cm="1">
+        <f t="array" ref="AG9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AM9" s="3" t="str" cm="1">
-        <f t="array" ref="AM9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AH9" s="3" t="str" cm="1">
+        <f t="array" ref="AH9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN9" s="3" t="str" cm="1">
-        <f t="array" ref="AN9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AI9" s="3" t="str" cm="1">
+        <f t="array" ref="AI9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO9" s="3" t="str" cm="1">
-        <f t="array" ref="AO9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
+      <c r="AJ9" s="3" t="str" cm="1">
+        <f t="array" ref="AJ9">_xlfn.LET(_xlpm.y, ROW(8:8)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:36">
       <c r="A10" t="str">
         <v>0,0 -&gt; 8,8</v>
       </c>
@@ -7234,251 +7119,239 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>8</v>
-      </c>
-      <c r="S10" s="2">
-        <v>8</v>
-      </c>
-      <c r="AE10" s="3" t="str" cm="1">
-        <f t="array" ref="AE10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="Z10" s="3" t="str" cm="1">
+        <f t="array" ref="Z10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF10" s="3" t="str" cm="1">
-        <f t="array" ref="AF10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AA10" s="3" t="str" cm="1">
+        <f t="array" ref="AA10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG10" s="3" t="str" cm="1">
-        <f t="array" ref="AG10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AB10" s="3" t="str" cm="1">
+        <f t="array" ref="AB10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AH10" s="3" t="str" cm="1">
-        <f t="array" ref="AH10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AC10" s="3" t="str" cm="1">
+        <f t="array" ref="AC10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI10" s="3" t="str" cm="1">
-        <f t="array" ref="AI10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AD10" s="3" t="str" cm="1">
+        <f t="array" ref="AD10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ10" s="3" t="str" cm="1">
-        <f t="array" ref="AJ10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AE10" s="3" t="str" cm="1">
+        <f t="array" ref="AE10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK10" s="3" t="str" cm="1">
-        <f t="array" ref="AK10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AF10" s="3" t="str" cm="1">
+        <f t="array" ref="AF10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL10" s="3" t="str" cm="1">
-        <f t="array" ref="AL10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AG10" s="3" t="str" cm="1">
+        <f t="array" ref="AG10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AM10" s="3" t="str" cm="1">
-        <f t="array" ref="AM10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AH10" s="3" t="str" cm="1">
+        <f t="array" ref="AH10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN10" s="3" t="str" cm="1">
-        <f t="array" ref="AN10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AI10" s="3" t="str" cm="1">
+        <f t="array" ref="AI10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO10" s="3" t="str" cm="1">
-        <f t="array" ref="AO10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
+      <c r="AJ10" s="3" t="str" cm="1">
+        <f t="array" ref="AJ10">_xlfn.LET(_xlpm.y, ROW(9:9)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:36">
       <c r="A11" t="str">
         <v>5,5 -&gt; 8,2</v>
       </c>
@@ -7516,506 +7389,494 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>5</v>
-      </c>
-      <c r="R11" s="2">
-        <v>8</v>
-      </c>
-      <c r="S11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE11" s="3" cm="1">
-        <f t="array" ref="AE11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="Z11" s="3" cm="1">
+        <f t="array" ref="Z11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>2</v>
       </c>
-      <c r="AF11" s="3" cm="1">
-        <f t="array" ref="AF11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AA11" s="3" cm="1">
+        <f t="array" ref="AA11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>2</v>
       </c>
-      <c r="AG11" s="3" cm="1">
-        <f t="array" ref="AG11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AB11" s="3" cm="1">
+        <f t="array" ref="AB11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>2</v>
       </c>
-      <c r="AH11" s="3" cm="1">
-        <f t="array" ref="AH11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AC11" s="3" cm="1">
+        <f t="array" ref="AC11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="3" cm="1">
-        <f t="array" ref="AI11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AD11" s="3" cm="1">
+        <f t="array" ref="AD11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AJ11" s="3" cm="1">
-        <f t="array" ref="AJ11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AE11" s="3" cm="1">
+        <f t="array" ref="AE11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>1</v>
       </c>
-      <c r="AK11" s="3" t="str" cm="1">
-        <f t="array" ref="AK11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AF11" s="3" t="str" cm="1">
+        <f t="array" ref="AF11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL11" s="3" t="str" cm="1">
-        <f t="array" ref="AL11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AG11" s="3" t="str" cm="1">
+        <f t="array" ref="AG11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AM11" s="3" t="str" cm="1">
-        <f t="array" ref="AM11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AH11" s="3" t="str" cm="1">
+        <f t="array" ref="AH11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN11" s="3" t="str" cm="1">
-        <f t="array" ref="AN11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AI11" s="3" t="str" cm="1">
+        <f t="array" ref="AI11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO11" s="3" t="str" cm="1">
-        <f t="array" ref="AO11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
+      <c r="AJ11" s="3" t="str" cm="1">
+        <f t="array" ref="AJ11">_xlfn.LET(_xlpm.y, ROW(10:10)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:36">
       <c r="N12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE12" s="3" t="str" cm="1">
-        <f t="array" ref="AE12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="Z12" s="3" t="str" cm="1">
+        <f t="array" ref="Z12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(A:A)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AF12" s="3" t="str" cm="1">
-        <f t="array" ref="AF12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AA12" s="3" t="str" cm="1">
+        <f t="array" ref="AA12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(B:B)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AG12" s="3" t="str" cm="1">
-        <f t="array" ref="AG12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AB12" s="3" t="str" cm="1">
+        <f t="array" ref="AB12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(C:C)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AH12" s="3" t="str" cm="1">
-        <f t="array" ref="AH12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AC12" s="3" t="str" cm="1">
+        <f t="array" ref="AC12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(D:D)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AI12" s="3" t="str" cm="1">
-        <f t="array" ref="AI12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AD12" s="3" t="str" cm="1">
+        <f t="array" ref="AD12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(E:E)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AJ12" s="3" t="str" cm="1">
-        <f t="array" ref="AJ12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AE12" s="3" t="str" cm="1">
+        <f t="array" ref="AE12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(F:F)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AK12" s="3" t="str" cm="1">
-        <f t="array" ref="AK12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AF12" s="3" t="str" cm="1">
+        <f t="array" ref="AF12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(G:G)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AL12" s="3" t="str" cm="1">
-        <f t="array" ref="AL12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AG12" s="3" t="str" cm="1">
+        <f t="array" ref="AG12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(H:H)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AM12" s="3" t="str" cm="1">
-        <f t="array" ref="AM12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AH12" s="3" t="str" cm="1">
+        <f t="array" ref="AH12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(I:I)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AN12" s="3" t="str" cm="1">
-        <f t="array" ref="AN12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AI12" s="3" t="str" cm="1">
+        <f t="array" ref="AI12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(J:J)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
-      <c r="AO12" s="3" t="str" cm="1">
-        <f t="array" ref="AO12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
+      <c r="AJ12" s="3" t="str" cm="1">
+        <f t="array" ref="AJ12">_xlfn.LET(_xlpm.y, ROW(11:11)-1,
            _xlpm.x, COLUMN(K:K)-1,
           _xlpm.horizontal_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($U$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($U$2)),ROW(_xlfn.ANCHORARRAY($U$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)/(_xlfn.ANCHORARRAY($P$2)=_xlpm.x)*ROW(_xlfn.ANCHORARRAY($P$2)),ROW(_xlfn.ANCHORARRAY($P$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                               _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($V$2), _xlpm.indexes-1),
-                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($X$2), _xlpm.indexes-1),
+                              _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Q$2), _xlpm.indexes-1),
+                              _xlpm.right, INDEX(_xlfn.ANCHORARRAY($S$2), _xlpm.indexes-1),
                               IF(_xlpm.left &lt;= _xlpm.y, IF(_xlpm.y &lt;= _xlpm.right, 1, 0), 0))))),
            _xlpm.vertical_intersects,
-               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($AA$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($AA$2)),ROW(_xlfn.ANCHORARRAY($AA$2))-1),
+               _xlfn.LET(_xlpm.match,_xlfn.AGGREGATE(15,3,(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)/(_xlfn.ANCHORARRAY($V$2)=_xlpm.y)*ROW(_xlfn.ANCHORARRAY($V$2)),ROW(_xlfn.ANCHORARRAY($V$2))-1),
                         SUM(IF(ISERROR(_xlpm.match), 0, _xlfn.LET(
                             _xlpm.indexes, _xlfn._xlws.FILTER(_xlpm.match,ISNUMBER(_xlpm.match)),
-                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($Z$2), _xlpm.indexes-1),
-                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($AB$2), _xlpm.indexes-1),
+                            _xlpm.left, INDEX(_xlfn.ANCHORARRAY($U$2), _xlpm.indexes-1),
+                            _xlpm.right, INDEX(_xlfn.ANCHORARRAY($W$2), _xlpm.indexes-1),
                             IF(_xlpm.left &lt;= _xlpm.x, IF(_xlpm.x &lt;= _xlpm.right, 1, 0), 0))))),
          _xlpm.intersects, SUM(_xlpm.horizontal_intersects, _xlpm.vertical_intersects),
          IF(_xlpm.intersects=0, ".", _xlpm.intersects))</f>
         <v>.</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:36">
       <c r="N13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:36">
       <c r="N14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:36">
       <c r="N15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:36">
       <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10941,7 +10802,7 @@
   <dimension ref="A1:ASI502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
